--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value450.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value450.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.262816450381055</v>
+        <v>0.9657450914382935</v>
       </c>
       <c r="B1">
-        <v>1.356478926290499</v>
+        <v>1.468256711959839</v>
       </c>
       <c r="C1">
-        <v>1.562732315403438</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.548346809923202</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>3.700181379533478</v>
+        <v>1.549679398536682</v>
       </c>
     </row>
   </sheetData>
